--- a/pred_ohlcv/54_21/2020-01-15 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 INS ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>55588.18399628602</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>55564.97399628602</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>55688.31499628602</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>55690.32479628602</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>54485.76329628602</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>60394.77819628602</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>85743.40299628602</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>95463.94339628602</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>96940.43409628602</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>96942.53409628602</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>96903.59439628602</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>96672.94219628602</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>126014.197796286</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>124119.638696286</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>116383.309596286</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>48926.27537119916</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>39066.72577119916</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>39112.72577119916</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>41538.97027119916</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>41700.97027119916</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>35437.47767119917</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>38181.19937119917</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>38886.85777119917</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>38868.98417119918</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>39047.65757119918</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>39898.65757119918</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>38422.16697119918</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>37275.47480510918</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>38432.39880510918</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>42445.62420510918</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>42455.62420510918</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>54258.85810510918</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>54296.85810510918</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>55688.97060510919</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>59082.08830510919</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>68344.88440510919</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>65274.37960510918</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>65727.37960510919</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>65264.59430510919</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>63872.48180510919</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>83067.62934450009</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>83693.04740470069</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>83024.86350470068</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>79871.06940470068</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>81501.06940470068</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>81486.85700470068</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>81785.85700470068</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>81764.85700470068</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>81742.85700470068</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>86720.38390470068</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>132274.5809852033</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>139879.7524852033</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>136256.6962050842</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>134961.6250050842</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>131387.8009050842</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>131401.7809050842</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>125773.8588050842</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>125404.3129050842</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>115698.8916050842</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>120983.8350050842</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>120752.0888050842</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>130991.5817050842</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>128727.1304050842</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>128383.8099050842</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 INS ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>55564.97399628602</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>55690.32479628602</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>60394.77819628602</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>85743.40299628602</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>95463.94339628602</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>96940.43409628602</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>96942.53409628602</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>96903.59439628602</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>96672.94219628602</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>126014.197796286</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>124119.638696286</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>116383.309596286</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>48926.27537119916</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>39066.72577119916</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>39112.72577119916</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>41538.97027119916</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>41700.97027119916</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>35537.68767119917</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>35437.47767119917</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>38181.19937119917</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>38886.85777119917</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>38868.98417119918</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>39047.65757119918</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>39898.65757119918</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>38422.16697119918</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>37275.47480510918</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>38432.39880510918</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>42445.62420510918</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>42455.62420510918</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>55378.10760510918</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>54258.85810510918</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>54296.85810510918</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>55688.97060510919</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>59082.08830510919</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>68344.88440510919</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>65274.37960510918</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>65727.37960510919</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>65264.59430510919</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>63872.48180510919</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>73804.12250510919</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>73800.2127051092</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>73850.2127051092</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>81759.8151051092</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>83067.62934450009</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>83693.04740470069</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>83024.86350470068</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>79871.06940470068</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>81501.06940470068</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>81486.85700470068</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>81785.85700470068</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>81764.85700470068</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>81742.85700470068</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>86720.38390470068</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>133175.2758852033</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>132274.5809852033</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>139879.7524852033</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>136256.6962050842</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>134961.6250050842</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>131387.8009050842</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>131401.7809050842</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>125773.8588050842</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>125404.3129050842</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>115698.8916050842</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>120983.8350050842</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>120752.0888050842</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>130991.5817050842</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>128727.1304050842</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
